--- a/Produtos.xlsx
+++ b/Produtos.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\excel_basico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261523C5-42DE-4929-9212-04F6AF8BFA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A6D68B-21B9-4C74-844A-ECCCDE230F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C1020C7C-3669-427E-B972-A35C439BE30D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{C1020C7C-3669-427E-B972-A35C439BE30D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Produtos Adultos" sheetId="2" r:id="rId1"/>
-    <sheet name="Produtos Infantis" sheetId="1" r:id="rId2"/>
+    <sheet name="Calçados Infantis" sheetId="1" r:id="rId1"/>
+    <sheet name="Gráficos (Infantis)" sheetId="6" r:id="rId2"/>
+    <sheet name="Calçados Adultos" sheetId="2" r:id="rId3"/>
+    <sheet name="Gráficos (Adultos)" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>Tênis Infantil Vermelho</t>
   </si>
@@ -64,16 +66,7 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t>Preço</t>
-  </si>
-  <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Lista de Produtos Adultos</t>
-  </si>
-  <si>
-    <t>Lista de Produtos Infantis</t>
   </si>
   <si>
     <t>Quantidade</t>
@@ -89,6 +82,12 @@
   </si>
   <si>
     <t>Valor do Desconto</t>
+  </si>
+  <si>
+    <t>Calçados Infantis</t>
+  </si>
+  <si>
+    <t>Calçados Adultos</t>
   </si>
 </sst>
 </file>
@@ -311,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -340,21 +339,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -379,6 +363,18 @@
     <xf numFmtId="44" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -386,12 +382,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -410,6 +400,3999 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
+              <a:t>Valor Total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38050849503208833"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21660513747257001"/>
+          <c:y val="7.848041737165283E-2"/>
+          <c:w val="0.91248649718245356"/>
+          <c:h val="0.48524780262759998"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calçados Infantis'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valor Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calçados Infantis'!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Tênis Infantil Vermelho</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tênis Infantil Vermelho</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tênis Infantil Vermelho</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tênis Infantil Azul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tênis Infantil Azul</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tênis Infantil Azul</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tênis Infantil Rosa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tênis Infantil Rosa</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tênis Infantil Rosa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calçados Infantis'!$F$3:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>153.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.73000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.910000000000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>384.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>242.73000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>242.73000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>161.82000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>242.73000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2733-4F09-AF47-DEAA651E2360}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1297668367"/>
+        <c:axId val="1297671279"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1297668367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1297671279"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1297671279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1297668367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
+              <a:t>Composição do Estoque</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calçados Infantis'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quantidade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5F32-4BCB-8BA6-C736F3C2D96F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5F32-4BCB-8BA6-C736F3C2D96F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5F32-4BCB-8BA6-C736F3C2D96F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5F32-4BCB-8BA6-C736F3C2D96F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-5F32-4BCB-8BA6-C736F3C2D96F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-5F32-4BCB-8BA6-C736F3C2D96F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-5F32-4BCB-8BA6-C736F3C2D96F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-5F32-4BCB-8BA6-C736F3C2D96F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-5F32-4BCB-8BA6-C736F3C2D96F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calçados Infantis'!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Tênis Infantil Vermelho</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tênis Infantil Vermelho</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tênis Infantil Vermelho</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tênis Infantil Azul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tênis Infantil Azul</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tênis Infantil Azul</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tênis Infantil Rosa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tênis Infantil Rosa</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tênis Infantil Rosa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calçados Infantis'!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-5F32-4BCB-8BA6-C736F3C2D96F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calçados Adultos'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valor Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calçados Adultos'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Sapato Social Masculino</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sapato Social Masculino</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sapato Social Masculino</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sapato Social Feminino</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sapato Social Feminino</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sapato Social Feminino</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tênis Adulto Masculino</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tênis Adulto Feminino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calçados Adultos'!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>351.97500000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>586.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>469.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>222.20500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>444.41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>444.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>284.97149999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>379.96199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD9F-43EB-BDA2-A33A0068F330}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1092592799"/>
+        <c:axId val="1092588639"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1092592799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1092588639"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1092588639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1092592799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" b="1"/>
+              <a:t>Composição do Estoque</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="2000" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Calçados Adultos'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quantidade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C4A7-4E58-83AA-4B96D5668E07}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C4A7-4E58-83AA-4B96D5668E07}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C4A7-4E58-83AA-4B96D5668E07}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-C4A7-4E58-83AA-4B96D5668E07}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-C4A7-4E58-83AA-4B96D5668E07}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-C4A7-4E58-83AA-4B96D5668E07}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-C4A7-4E58-83AA-4B96D5668E07}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-C4A7-4E58-83AA-4B96D5668E07}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Calçados Adultos'!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Sapato Social Masculino</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sapato Social Masculino</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sapato Social Masculino</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sapato Social Feminino</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sapato Social Feminino</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Sapato Social Feminino</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tênis Adulto Masculino</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tênis Adulto Feminino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Calçados Adultos'!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-C4A7-4E58-83AA-4B96D5668E07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ABB8A84-F16E-4EB5-A754-FCD1126ADC5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>283028</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE893471-E6D5-4A08-BA5B-9E734BC2E631}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04287EC8-0746-496E-BDB1-47F55BFA864A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E85EA6E7-AFD6-4EA6-BE00-1AB533DF8151}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -708,151 +4691,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11457A20-D52B-4B50-BD9F-1D9C1642AE78}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.28515625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="20.85546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6">
-        <v>39</v>
-      </c>
-      <c r="C3" s="16">
-        <v>123.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>40</v>
-      </c>
-      <c r="C4" s="16">
-        <v>123.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6">
-        <v>41</v>
-      </c>
-      <c r="C5" s="16">
-        <v>123.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6">
-        <v>36</v>
-      </c>
-      <c r="C6" s="16">
-        <v>233.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6">
-        <v>37</v>
-      </c>
-      <c r="C7" s="16">
-        <v>233.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6">
-        <v>38</v>
-      </c>
-      <c r="C8" s="16">
-        <v>233.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6">
-        <v>42</v>
-      </c>
-      <c r="C9" s="16">
-        <v>99.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8">
-        <v>37</v>
-      </c>
-      <c r="C10" s="17">
-        <v>99.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="20">
-        <f>SUM(C3:C10)</f>
-        <v>1272.18</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28950047-4DC7-4B55-AD54-8D540034D2A5}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,14 +4708,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="A1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -882,16 +4725,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -901,21 +4744,21 @@
       <c r="B3" s="4">
         <v>27</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="10">
         <v>85.5</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="10">
         <f>C3*$C$13</f>
         <v>8.5500000000000007</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="10">
         <f>(C3-D3)*E3</f>
         <v>153.9</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -924,17 +4767,17 @@
       <c r="B4" s="6">
         <v>28</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="11">
         <v>89.9</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="10">
         <f t="shared" ref="D4:D11" si="0">C4*$C$13</f>
         <v>8.99</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="10">
         <f t="shared" ref="F4:F11" si="1">(C4-D4)*E4</f>
         <v>242.73000000000002</v>
       </c>
@@ -946,17 +4789,17 @@
       <c r="B5" s="6">
         <v>29</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="11">
         <v>89.9</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="10">
         <f t="shared" si="0"/>
         <v>8.99</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="10">
         <f t="shared" si="1"/>
         <v>80.910000000000011</v>
       </c>
@@ -968,17 +4811,17 @@
       <c r="B6" s="6">
         <v>27</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="10">
         <v>85.5</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="10">
         <f t="shared" si="0"/>
         <v>8.5500000000000007</v>
       </c>
       <c r="E6" s="4">
         <v>5</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="10">
         <f t="shared" si="1"/>
         <v>384.75</v>
       </c>
@@ -990,17 +4833,17 @@
       <c r="B7" s="6">
         <v>28</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="11">
         <v>89.9</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="10">
         <f t="shared" si="0"/>
         <v>8.99</v>
       </c>
       <c r="E7" s="6">
         <v>3</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="10">
         <f t="shared" si="1"/>
         <v>242.73000000000002</v>
       </c>
@@ -1012,17 +4855,17 @@
       <c r="B8" s="6">
         <v>29</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="11">
         <v>89.9</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="10">
         <f t="shared" si="0"/>
         <v>8.99</v>
       </c>
       <c r="E8" s="6">
         <v>3</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="10">
         <f t="shared" si="1"/>
         <v>242.73000000000002</v>
       </c>
@@ -1035,17 +4878,17 @@
       <c r="B9" s="6">
         <v>27</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="10">
         <v>85.5</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="10">
         <f t="shared" si="0"/>
         <v>8.5500000000000007</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="10">
         <f t="shared" si="1"/>
         <v>76.95</v>
       </c>
@@ -1057,17 +4900,17 @@
       <c r="B10" s="6">
         <v>28</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="11">
         <v>89.9</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="10">
         <f t="shared" si="0"/>
         <v>8.99</v>
       </c>
       <c r="E10" s="6">
         <v>2</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="10">
         <f t="shared" si="1"/>
         <v>161.82000000000002</v>
       </c>
@@ -1079,51 +4922,51 @@
       <c r="B11" s="6">
         <v>29</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="11">
         <v>89.9</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="10">
         <f t="shared" si="0"/>
         <v>8.99</v>
       </c>
       <c r="E11" s="6">
         <v>3</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="10">
         <f t="shared" si="1"/>
         <v>242.73000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="20">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="15">
         <f>SUM(C3:C11)</f>
         <v>795.9</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="21">
+      <c r="D12" s="18"/>
+      <c r="E12" s="16">
         <f>SUM(E3:E11)</f>
         <v>23</v>
       </c>
-      <c r="F12" s="22">
-        <f>C12*E12</f>
-        <v>18305.7</v>
+      <c r="F12" s="17">
+        <f>SUM(F3:F11)</f>
+        <v>1829.25</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="23">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="22">
         <v>0.1</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1133,4 +4976,304 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E347A6-F6B2-4F76-B463-5D2CA205689D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11457A20-D52B-4B50-BD9F-1D9C1642AE78}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="20.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6">
+        <v>39</v>
+      </c>
+      <c r="C3" s="11">
+        <v>123.5</v>
+      </c>
+      <c r="D3" s="10">
+        <f>C3*$C$12</f>
+        <v>6.1750000000000007</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10">
+        <f>(C3-D3)*E3</f>
+        <v>351.97500000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>40</v>
+      </c>
+      <c r="C4" s="11">
+        <v>123.5</v>
+      </c>
+      <c r="D4" s="10">
+        <f t="shared" ref="D4:D10" si="0">C4*$C$12</f>
+        <v>6.1750000000000007</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" ref="F4:F10" si="1">(C4-D4)*E4</f>
+        <v>586.625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>41</v>
+      </c>
+      <c r="C5" s="11">
+        <v>123.5</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" si="0"/>
+        <v>6.1750000000000007</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" si="1"/>
+        <v>469.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>36</v>
+      </c>
+      <c r="C6" s="11">
+        <v>233.9</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" si="0"/>
+        <v>11.695</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="1"/>
+        <v>222.20500000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>37</v>
+      </c>
+      <c r="C7" s="11">
+        <v>233.9</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="0"/>
+        <v>11.695</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="1"/>
+        <v>444.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6">
+        <v>38</v>
+      </c>
+      <c r="C8" s="11">
+        <v>233.9</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>11.695</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="1"/>
+        <v>444.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6">
+        <v>42</v>
+      </c>
+      <c r="C9" s="11">
+        <v>99.99</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="0"/>
+        <v>4.9995000000000003</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="1"/>
+        <v>284.97149999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8">
+        <v>37</v>
+      </c>
+      <c r="C10" s="12">
+        <v>99.99</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>4.9995000000000003</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="1"/>
+        <v>379.96199999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15">
+        <f>SUM(C3:C10)</f>
+        <v>1272.18</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="16">
+        <f>SUM(E3:E10)</f>
+        <v>24</v>
+      </c>
+      <c r="F11" s="17">
+        <f>SUM(F3:F10)</f>
+        <v>3183.8584999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53BF5499-8042-439C-BD54-371E34102610}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>